--- a/biology/Médecine/Mediboard/Mediboard.xlsx
+++ b/biology/Médecine/Mediboard/Mediboard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mediboard est une application web open source de gestion d'établissement de santé. Il se définit plus précisément comme la partie logicielle d'un système d'information hospitalier,  c'est-à-dire un progiciel de gestion intégré adapté aux établissements de santé de toute taille, du simple cabinet de praticien au centre médical multisite.
 Il est développé dans une architecture Web multi-couches et modulaires, utilisant notamment PHP, XML, XHTML, JavaScript, CSS, Prototype.js, Smarty et PEAR.
@@ -514,12 +526,49 @@
           <t>Fonctionnalités</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Mediboard est initialement conçu comme un pont entre les dossiers médicaux gérés par les praticiens, notamment dans le cadre de leur activité libérale au sein des cabinets médicaux, et le dossier patient administratif utilisé par les établissements dans un cadre plus organisationnel et financier.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mediboard est initialement conçu comme un pont entre les dossiers médicaux gérés par les praticiens, notamment dans le cadre de leur activité libérale au sein des cabinets médicaux, et le dossier patient administratif utilisé par les établissements dans un cadre plus organisationnel et financier.
 Ce pont prend la forme du dossier administratif et médical, complété tout au long du parcours du patient, des points de vue complémentaires de l'établissement et des équipes médicales.
-Dossier patient administratif et médical
-Gestion des identités patients (identifiant permanent du patient)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Mediboard</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mediboard</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Fonctionnalités</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Dossier patient administratif et médical</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Gestion des identités patients (identifiant permanent du patient)
 Moteur de recherche avancé incluant les résultats proches phonétiquement
 Gestion des séjours
 Accueil clinique : admission et sortie des patients
@@ -531,9 +580,43 @@
 Génération de documents basés sur des modèles : feuille d'admissions, consentements, fiches d'information, ordonnances
 Gestion électronique de documents, tous formats (images, PDF…), avec visualiseur multipages
 Gestion des antécédents, allergies
-Systèmes d'annotations et d'alertes partagées entre les professionnels de santé et le personnel d'établissement
-Activité de l'établissement de santé
-Planning des admissions / sorties du patient à l'accueil
+Systèmes d'annotations et d'alertes partagées entre les professionnels de santé et le personnel d'établissement</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Mediboard</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mediboard</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Fonctionnalités</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Activité de l'établissement de santé</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Planning des admissions / sorties du patient à l'accueil
 Gestion bloc opératoire
 ordonnancement des vacations des praticiens
 suivi en temps réel de l'avancée des programmes depuis le bloc et les services d'hospitalisation
@@ -558,10 +641,47 @@
 Création et suivi des fiches d'incidents
 Gestion électronique des procédures (suivi de version, regroupement par chapitres, etc.)
 Vérification du codage des actes et pré-groupage pour exportation (CPAM, système de facturation, etc.)
-Tableaux de bord de l'activité
-Activité des praticiens
-Consultations
-Prise de rendez-vous de consultation
+Tableaux de bord de l'activité</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Mediboard</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mediboard</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Fonctionnalités</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Activité des praticiens</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Consultations</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Prise de rendez-vous de consultation
 Gestion de consultations médicales, chirurgicales,
 Antécédents, traitements, addictions, Diagnostics
 Motifs, examens, remarques, traitements
@@ -576,9 +696,47 @@
 Gestion comptable de l'activité libérale
 Suivi des paiements
 Rapports d'activité
-Comptabilité du cabinet médical (type SELARL / SCM)
-Activité clinique
-Fiche d'admission électronique basé sur des protocoles
+Comptabilité du cabinet médical (type SELARL / SCM)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Mediboard</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mediboard</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Fonctionnalités</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Activité des praticiens</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Activité clinique</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Fiche d'admission électronique basé sur des protocoles
 Planification des plages d'opérations
 Planning du bloc opératoire
 Codage direct des actes CCAM en salle, pendant l'intervention
@@ -587,31 +745,33 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Mediboard</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Mediboard</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Infrastructure</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Accès sécurisé : authentification, SSL
 Gestion multi-établissements
